--- a/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,72</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,76</t>
+          <t>0; 13,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,56</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 30,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,08</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,78</t>
+          <t>0,0; 35,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,59</t>
+          <t>0,0; 14,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,46</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,2</t>
+          <t>0,0; 18,11</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,06</t>
+          <t>0,61; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,6; 5,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,05</t>
+          <t>0,6; 5,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,52</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,85</t>
+          <t>0,61; 6,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,84</t>
+          <t>1,15; 6,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,96</t>
+          <t>0,57; 3,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,1</t>
+          <t>1,15; 4,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,24</t>
+          <t>1,47; 5,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,62; 6,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,38</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 1,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,35</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,46</t>
+          <t>0,43; 3,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,11</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,71</t>
+          <t>2,86; 11,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>1,91; 9,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>0,0; 6,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,68; 5,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,93</t>
+          <t>1,46; 5,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,39; 4,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>1,56; 6,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,38</t>
+          <t>0,0; 25,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,35</t>
+          <t>0,0; 39,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,46</t>
+          <t>0,0; 14,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,11</t>
+          <t>0,0; 21,75</t>
         </is>
       </c>
     </row>
@@ -800,42 +800,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,98</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,39</t>
+          <t>0,0; 7,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,76</t>
+          <t>1,06; 9,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,51</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,96</t>
+          <t>0,0; 10,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,29</t>
+          <t>0,96; 5,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,71</t>
+          <t>0,59; 6,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,67</t>
+          <t>0,66; 6,28</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,72</t>
+          <t>0,61; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,76</t>
+          <t>0,6; 5,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,56</t>
+          <t>0,59; 6,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,08</t>
+          <t>0,6; 5,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,78</t>
+          <t>1,16; 6,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,59</t>
+          <t>0,57; 3,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,46</t>
+          <t>0,95; 4,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,2</t>
+          <t>1,23; 4,98</t>
         </is>
       </c>
     </row>
@@ -1015,22 +1015,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,71</t>
+          <t>0,62; 5,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 4,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 4,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,22 +1040,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,0; 5,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,93</t>
+          <t>0,44; 3,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,06</t>
+          <t>2,8; 10,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,05</t>
+          <t>1,92; 9,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,52</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,85</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,84</t>
+          <t>0,68; 6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,96</t>
+          <t>1,5; 6,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,1</t>
+          <t>0,39; 3,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,24</t>
+          <t>1,58; 6,05</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,98</t>
+          <t>1,7; 4,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,52</t>
+          <t>0,93; 3,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,11</t>
+          <t>1,24; 4,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,67</t>
+          <t>0,62; 2,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,94</t>
+          <t>0,75; 3,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,1</t>
+          <t>1,29; 4,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,32</t>
+          <t>1,49; 3,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,74</t>
+          <t>1,04; 2,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,55</t>
+          <t>1,63; 3,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,82</t>
+          <t>0,0; 26,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,46</t>
+          <t>0,0; 36,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,56</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,75</t>
+          <t>0,0; 19,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,54</t>
+          <t>0,0; 6,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 10,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,29</t>
+          <t>0,0; 7,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,85</t>
+          <t>1,05; 9,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 7,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,15</t>
+          <t>0,0; 10,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,87</t>
+          <t>1,0; 5,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,08</t>
+          <t>0,7; 6,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,28</t>
+          <t>0,66; 5,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,49 +910,49 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,93</t>
+          <t>0,6; 5,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,05</t>
+          <t>0,59; 5,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,71</t>
+          <t>0,55; 5,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,77</t>
+          <t>1,11; 6,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,62</t>
+          <t>0,57; 3,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,53</t>
+          <t>1,16; 4,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,98</t>
+          <t>1,41; 5,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,22 +1015,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,68</t>
+          <t>0,62; 6,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,64</t>
+          <t>0,0; 4,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,22 +1040,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,41</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,84</t>
+          <t>0,43; 3,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,17</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,74</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 10,88</t>
+          <t>2,81; 11,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,0</t>
+          <t>1,98; 9,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,83</t>
+          <t>0,0; 3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,55</t>
+          <t>0,0; 6,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,29</t>
+          <t>0,68; 6,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,18</t>
+          <t>1,45; 6,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,92</t>
+          <t>0,41; 4,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,05</t>
+          <t>1,58; 5,96</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,64</t>
+          <t>1,9; 4,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,44</t>
+          <t>0,94; 3,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,25</t>
+          <t>1,31; 4,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,86</t>
+          <t>0,57; 2,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,18</t>
+          <t>0,73; 3,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,5</t>
+          <t>1,33; 4,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,25</t>
+          <t>1,54; 3,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,71</t>
+          <t>1,05; 2,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,6</t>
+          <t>1,55; 3,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,99; 10,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 5,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>1,1; 10,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,08</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,11</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,69</t>
+          <t>1,04; 5,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,57; 5,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,7</t>
+          <t>0,56; 6,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,39</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,65</t>
+          <t>0,61; 6,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,82</t>
+          <t>1,15; 6,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,54</t>
+          <t>0,61; 6,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,46</t>
+          <t>0,6; 5,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,09</t>
+          <t>0,6; 5,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,85</t>
+          <t>0,57; 3,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,7</t>
+          <t>1,15; 4,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,76</t>
+          <t>1,47; 5,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,48</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,37</t>
+          <t>0; 1,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,89</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,92</t>
+          <t>0,62; 6,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,36</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,46</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,06</t>
+          <t>0,43; 3,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,62</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,13</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,03</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 6,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>0,68; 5,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,6</t>
+          <t>2,86; 11,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,5</t>
+          <t>1,91; 9,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,72</t>
+          <t>1,46; 5,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,39; 4,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>1,56; 6,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,03</t>
+          <t>0,58; 2,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,9</t>
+          <t>0,72; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,59</t>
+          <t>1,2; 4,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,54</t>
+          <t>1,97; 4,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>0,82; 3,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,69</t>
+          <t>1,22; 4,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,06</t>
+          <t>1,5; 3,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,23</t>
+          <t>1,05; 2,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,96</t>
+          <t>1,62; 3,55</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 4,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 3,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 4,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 2,72</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 3,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,33</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 3,32</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,74</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 3,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
